--- a/swrc.xlsx
+++ b/swrc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="15300" windowHeight="13040"/>
+    <workbookView xWindow="1800" yWindow="640" windowWidth="16880" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="unimodal" sheetId="14" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <definedName name="select">#REF!</definedName>
     <definedName name="summary">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Paste measured plot below</t>
     <phoneticPr fontId="1"/>
@@ -135,51 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>qs =  0.51593</t>
-  </si>
-  <si>
-    <t>qr =  0.11317</t>
-  </si>
-  <si>
-    <t>hb =  35.173</t>
-  </si>
-  <si>
-    <t>lambda =  1.5604</t>
-  </si>
-  <si>
-    <t>R2 =  0.99978</t>
-  </si>
-  <si>
-    <t>qs =  0.52576</t>
-  </si>
-  <si>
-    <t>qr =  0.15489</t>
-  </si>
-  <si>
-    <t>alpha =  0.020765</t>
-  </si>
-  <si>
-    <t>n =  4.5757</t>
-  </si>
-  <si>
-    <t>R2 =  0.99338</t>
-  </si>
-  <si>
-    <t>qs =  0.52421</t>
-  </si>
-  <si>
-    <t>qr =  0.16108</t>
-  </si>
-  <si>
-    <t>hm =  52.004</t>
-  </si>
-  <si>
-    <t>sigma =  0.38605</t>
-  </si>
-  <si>
-    <t>R2 =  0.99251</t>
-  </si>
-  <si>
     <t>qs =  0.50240</t>
   </si>
   <si>
@@ -229,13 +184,86 @@
   </si>
   <si>
     <t>R2 =  0.99970</t>
+  </si>
+  <si>
+    <t>=== FX model ===</t>
+  </si>
+  <si>
+    <t>qs =  0,51593</t>
+  </si>
+  <si>
+    <t>qr =  0,11317</t>
+  </si>
+  <si>
+    <t>hb =  35,173</t>
+  </si>
+  <si>
+    <t>lambda =  1,5604</t>
+  </si>
+  <si>
+    <t>R2 =  0,99978</t>
+  </si>
+  <si>
+    <t>qs =  0,52576</t>
+  </si>
+  <si>
+    <t>qr =  0,15489</t>
+  </si>
+  <si>
+    <t>alpha =  0,020766</t>
+  </si>
+  <si>
+    <t>n =  4,5756</t>
+  </si>
+  <si>
+    <t>R2 =  0,99338</t>
+  </si>
+  <si>
+    <t>qs =  0,52421</t>
+  </si>
+  <si>
+    <t>qr =  0,16108</t>
+  </si>
+  <si>
+    <t>hm =  52,004</t>
+  </si>
+  <si>
+    <t>sigma =  0,38605</t>
+  </si>
+  <si>
+    <t>R2 =  0,99251</t>
+  </si>
+  <si>
+    <t>qs =  0,52092</t>
+  </si>
+  <si>
+    <t>qr =    8,4713e-07</t>
+  </si>
+  <si>
+    <t>a =  39,071</t>
+  </si>
+  <si>
+    <t>m =  0,52041</t>
+  </si>
+  <si>
+    <t>n =  7,3073</t>
+  </si>
+  <si>
+    <t>R2 =  0,99824</t>
+  </si>
+  <si>
+    <t>FX model</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -289,8 +317,15 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +350,12 @@
         <bgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -325,12 +366,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -345,14 +390,21 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_コピー ～ lab_drying_h-t" xfId="2"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -428,8 +480,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="ja-JP"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -444,6 +505,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -906,70 +968,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0.525759117116257</c:v>
+                  <c:v>0.525759116681931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.525717381399372</c:v>
+                  <c:v>0.525717364048453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.524746731325832</c:v>
+                  <c:v>0.524746390086084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.519388553025154</c:v>
+                  <c:v>0.519386696421263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.499581924297444</c:v>
+                  <c:v>0.49957554894679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48133234738188</c:v>
+                  <c:v>0.481322680456994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.435675554363268</c:v>
+                  <c:v>0.435660326572864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.404292459892353</c:v>
+                  <c:v>0.404275264989393</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.388082014808329</c:v>
+                  <c:v>0.388064323075802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.379978139911269</c:v>
+                  <c:v>0.379960323452249</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.348330505649857</c:v>
+                  <c:v>0.348312938539827</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.326114198918107</c:v>
+                  <c:v>0.326097452981755</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.293229579849628</c:v>
+                  <c:v>0.293214910832584</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.256695022734715</c:v>
+                  <c:v>0.256683677719332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.233352310214974</c:v>
+                  <c:v>0.233343524353146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.197435711950138</c:v>
+                  <c:v>0.197431251187409</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.177242006679053</c:v>
+                  <c:v>0.177239971578776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.167726524368974</c:v>
+                  <c:v>0.167725535759545</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.164372495477467</c:v>
+                  <c:v>0.164371841544815</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.161884336153709</c:v>
+                  <c:v>0.161883911495431</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.160291835303858</c:v>
+                  <c:v>0.160291545579868</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.158874611144294</c:v>
+                  <c:v>0.158874430900333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1148,7 @@
                   <c:v>0.524209999999973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.524209962768262</c:v>
+                  <c:v>0.524209962768269</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.524087294921604</c:v>
@@ -1153,15 +1215,202 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="561443992"/>
-        <c:axId val="493212712"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>unimodal!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FX model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>unimodal!$C$8:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>unimodal!$H$8:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.520919999286932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.520919651624908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.520864836361026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.519857408451319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.510186991784661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.495304318678613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.443480920887387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.404044520813176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.384275328036075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.374696922548231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.339637458025856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.317319292975969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.287315927174878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.256953390979388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.238207182515387</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.207609444781304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.186122364050386</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.172301538782476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.165965365368062</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16025690199837</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15584598686273</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15108671104159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2066030888"/>
+        <c:axId val="2066019320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561443992"/>
+        <c:axId val="2066030888"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1194,6 +1443,7 @@
               <c:y val="0.893005012423053"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1230,18 +1480,19 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493212712"/>
+        <c:crossAx val="2066019320"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493212712"/>
+        <c:axId val="2066019320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1284,6 +1535,7 @@
               <c:y val="0.176954910295812"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1320,7 +1572,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561443992"/>
+        <c:crossAx val="2066030888"/>
         <c:crossesAt val="0.01"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1340,12 +1592,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.236841851654747"/>
-          <c:y val="0.481481965223489"/>
-          <c:w val="0.179824368848975"/>
-          <c:h val="0.300411824455681"/>
+          <c:x val="0.148578992281137"/>
+          <c:y val="0.416394022175799"/>
+          <c:w val="0.285207323222528"/>
+          <c:h val="0.312169639509347"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -1377,6 +1630,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1415,8 +1669,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="ja-JP"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1431,6 +1694,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1635,43 +1899,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0.502160006506121</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49674345074355</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.483894794107469</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.458797452211419</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.432556760500491</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.415146269132437</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40515919441961</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.397482098973455</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.388315054250087</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.354908566102482</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.304224211579526</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.266781129329954</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.248808103061213</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,58 +2022,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0.502651011524091</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.496409116158196</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.483017311669752</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45965867570494</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.433331808671192</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41405682196984</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40435761611334</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.398232932465078</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.388910080944304</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35424271688243</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.304754249414795</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.266759403742859</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.248638030713642</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="838419656"/>
-        <c:axId val="838655896"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2065960824"/>
+        <c:axId val="2065954584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="838419656"/>
+        <c:axId val="2065960824"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1842,6 +2115,7 @@
               <c:y val="0.895999125000854"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1878,18 +2152,19 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838655896"/>
+        <c:crossAx val="2065954584"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
         <c:minorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="838655896"/>
+        <c:axId val="2065954584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1932,6 +2207,7 @@
               <c:y val="0.159999843750153"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1968,7 +2244,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="838419656"/>
+        <c:crossAx val="2065960824"/>
         <c:crossesAt val="0.01"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,6 +2270,7 @@
           <c:h val="0.21999978515646"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -2025,6 +2302,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2064,15 +2342,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2476,28 +2754,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="13" style="3"/>
+    <col min="1" max="1" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="13" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2507,7 +2787,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2516,14 +2796,14 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -2534,7 +2814,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -2545,7 +2825,7 @@
       <c r="D6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -2565,22 +2845,29 @@
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="H7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="3" t="str">
         <f>RIGHT(A8,LEN(A8)-FIND("=",A8,1))</f>
-        <v xml:space="preserve">  0.51593</v>
-      </c>
-      <c r="J7" s="3" t="str">
+        <v xml:space="preserve">  0,51593</v>
+      </c>
+      <c r="K7" s="3" t="str">
         <f>RIGHT(A14,LEN(A14)-FIND("=",A14,1))</f>
-        <v xml:space="preserve">  0.52576</v>
-      </c>
-      <c r="K7" s="3" t="str">
+        <v xml:space="preserve">  0,52576</v>
+      </c>
+      <c r="L7" s="3" t="str">
         <f>RIGHT(A20,LEN(A20)-FIND("=",A20,1))</f>
-        <v xml:space="preserve">  0.52421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v xml:space="preserve">  0,52421</v>
+      </c>
+      <c r="M7" s="16" t="str">
+        <f>RIGHT(A26,LEN(A26)-FIND("=",A26,1))</f>
+        <v xml:space="preserve">  0,52092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="12">
@@ -2590,33 +2877,41 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8:E29" si="0">MIN(I$8+(I$7-I$8)*((C8/I$9)^(-I$10)),I$7*1)</f>
+        <f t="shared" ref="E8:E29" si="0">MIN(J$8+(J$7-J$8)*((C8/J$9)^(-J$10)),J$7*1)</f>
         <v>0.51593</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:F29" si="1">J$8+(J$7-J$8)*(1+(J$9*C8)^J$10)^(1/J$10-1)</f>
-        <v>0.52575911711625734</v>
+        <f t="shared" ref="F8:F29" si="1">K$8+(K$7-K$8)*(1+(K$9*C8)^K$10)^(1/K$10-1)</f>
+        <v>0.52575911668193054</v>
       </c>
       <c r="G8" s="3">
-        <f>K$8+(K$7-K$8)*(1-NORMSDIST(LN(C8/K$9)/K$10))</f>
+        <f>L$8+(L$7-L$8)*(1-NORMSDIST(LN(C8/L$9)/L$10))</f>
         <v>0.5242099999999732</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="H8" s="3">
+        <f>M$8+(M$7-M$8)*(LN(EXP(1)+(C8/M$9)^M$11)^(-M$10))</f>
+        <v>0.52091999928693189</v>
+      </c>
+      <c r="J8" s="3" t="str">
         <f>RIGHT(A9,LEN(A9)-FIND("=",A9,1))</f>
-        <v xml:space="preserve">  0.11317</v>
-      </c>
-      <c r="J8" s="3" t="str">
+        <v xml:space="preserve">  0,11317</v>
+      </c>
+      <c r="K8" s="3" t="str">
         <f>RIGHT(A15,LEN(A15)-FIND("=",A15,1))</f>
-        <v xml:space="preserve">  0.15489</v>
-      </c>
-      <c r="K8" s="3" t="str">
+        <v xml:space="preserve">  0,15489</v>
+      </c>
+      <c r="L8" s="3" t="str">
         <f>RIGHT(A21,LEN(A21)-FIND("=",A21,1))</f>
-        <v xml:space="preserve">  0.16108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v xml:space="preserve">  0,16108</v>
+      </c>
+      <c r="M8" s="16" t="str">
+        <f t="shared" ref="M8:M11" si="2">RIGHT(A27,LEN(A27)-FIND("=",A27,1))</f>
+        <v xml:space="preserve">    8,4713e-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="12">
@@ -2631,28 +2926,36 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>0.5257173813993723</v>
+        <v>0.52571736404845293</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G29" si="2">K$8+(K$7-K$8)*(1-NORMSDIST(LN(C9/K$9)/K$10))</f>
-        <v>0.52420996276826193</v>
-      </c>
-      <c r="I9" s="3" t="str">
+        <f t="shared" ref="G9:G29" si="3">L$8+(L$7-L$8)*(1-NORMSDIST(LN(C9/L$9)/L$10))</f>
+        <v>0.52420996276826926</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9:H29" si="4">M$8+(M$7-M$8)*(LN(EXP(1)+(C9/M$9)^M$11)^(-M$10))</f>
+        <v>0.52091965162490761</v>
+      </c>
+      <c r="J9" s="3" t="str">
         <f>RIGHT(A10,LEN(A10)-FIND("=",A10,1))</f>
-        <v xml:space="preserve">  35.173</v>
-      </c>
-      <c r="J9" s="3" t="str">
+        <v xml:space="preserve">  35,173</v>
+      </c>
+      <c r="K9" s="3" t="str">
         <f>RIGHT(A16,LEN(A16)-FIND("=",A16,1))</f>
-        <v xml:space="preserve">  0.020765</v>
-      </c>
-      <c r="K9" s="3" t="str">
+        <v xml:space="preserve">  0,020766</v>
+      </c>
+      <c r="L9" s="3" t="str">
         <f>RIGHT(A22,LEN(A22)-FIND("=",A22,1))</f>
-        <v xml:space="preserve">  52.004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v xml:space="preserve">  52,004</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  39,071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="12">
@@ -2667,28 +2970,36 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>0.52474673132583216</v>
+        <v>0.52474639008608381</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52408729492160377</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.52086483636102587</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f>RIGHT(A11,LEN(A11)-FIND("=",A11,1))</f>
+        <v xml:space="preserve">  1,5604</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f>RIGHT(A17,LEN(A17)-FIND("=",A17,1))</f>
+        <v xml:space="preserve">  4,5756</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f>RIGHT(A23,LEN(A23)-FIND("=",A23,1))</f>
+        <v xml:space="preserve">  0,38605</v>
+      </c>
+      <c r="M10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.52408729492160377</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f>RIGHT(A11,LEN(A11)-FIND("=",A11,1))</f>
-        <v xml:space="preserve">  1.5604</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f>RIGHT(A17,LEN(A17)-FIND("=",A17,1))</f>
-        <v xml:space="preserve">  4.5757</v>
-      </c>
-      <c r="K10" s="3" t="str">
-        <f>RIGHT(A23,LEN(A23)-FIND("=",A23,1))</f>
-        <v xml:space="preserve">  0.38605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v xml:space="preserve">  0,52041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="12">
@@ -2703,16 +3014,24 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>0.51938855302515419</v>
+        <v>0.51938669642126323</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52079144672467637</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.51985740845131911</v>
+      </c>
+      <c r="M11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>0.52079144672467625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v xml:space="preserve">  7,3073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="12">
@@ -2727,14 +3046,18 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>0.49958192429744452</v>
+        <v>0.49957554894679024</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50054754848295102</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="H12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.51018699178466065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -2751,16 +3074,20 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>0.48133234738188013</v>
+        <v>0.48132268045699367</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.48086155172380757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>0.48086155172380762</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.49530431867861346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="12">
@@ -2775,16 +3102,20 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>0.43567555436326788</v>
+        <v>0.4356603265728638</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43404048198117373</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="H14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44348092088738728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="12">
@@ -2799,16 +3130,20 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>0.40429245989235263</v>
+        <v>0.40427526498939281</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.40345680574321441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>0.40345680574321452</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.40404452081317649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="12">
@@ -2823,16 +3158,20 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>0.38808201480832916</v>
+        <v>0.38806432307580235</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.38791799930344811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0.38791799930344817</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.38427532803607467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="12">
@@ -2847,16 +3186,20 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>0.37997813991126939</v>
+        <v>0.3799603234522495</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.38018072208843778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0.38018072208843784</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.37469692254823117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="12">
@@ -2871,14 +3214,18 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>0.34833050564985707</v>
+        <v>0.34831293853982659</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.34995752660677149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0.34995752660677143</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.3396374580258561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
@@ -2895,16 +3242,20 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>0.32611419891810722</v>
+        <v>0.32609745298175496</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32853393660174035</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.31731929297596873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="9" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C20" s="12">
         <v>59</v>
@@ -2918,16 +3269,20 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>0.29322957984962816</v>
+        <v>0.29321491083258355</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.29611172358087579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0.29611172358087573</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.28731592717487797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C21" s="12">
         <v>66</v>
@@ -2941,16 +3296,20 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>0.25669502273471506</v>
+        <v>0.25668367771933159</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25857920899363468</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.25695339097938813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C22" s="12">
         <v>72</v>
@@ -2964,16 +3323,20 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>0.23335231021497377</v>
+        <v>0.23334352435314581</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23359081639030893</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.23820718251538661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="9" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C23" s="12">
         <v>87</v>
@@ -2987,16 +3350,20 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>0.1974357119501377</v>
+        <v>0.19743125118740876</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1942240370824225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0.19422403708242247</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="4"/>
+        <v>0.207609444781304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C24" s="12">
         <v>105</v>
@@ -3010,15 +3377,21 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.1772420066790531</v>
+        <v>0.17723997157877605</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="2"/>
-        <v>0.17356217247293537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
+        <f t="shared" si="3"/>
+        <v>0.17356217247293543</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.18612236405038651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="12">
         <v>123</v>
       </c>
@@ -3031,14 +3404,21 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>0.16772652436897395</v>
+        <v>0.16772553575954544</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16575570201943188</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="3">
+        <f t="shared" si="4"/>
+        <v>0.17230153878247606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="C26" s="12">
         <v>134</v>
       </c>
@@ -3047,18 +3427,25 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>0.16312939510009097</v>
+        <v>0.163129395100091</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
-        <v>0.16437249547746668</v>
+        <v>0.16437184154481457</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="2"/>
-        <v>0.16366079814367651</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0.16366079814367643</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16596536536806161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="C27" s="12">
         <v>146</v>
       </c>
@@ -3071,14 +3458,21 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>0.16188433615370945</v>
+        <v>0.16188391149543074</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16244099735430673</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16025690199836978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C28" s="12">
         <v>157</v>
       </c>
@@ -3091,14 +3485,21 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
-        <v>0.16029183530385796</v>
+        <v>0.16029154557986819</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="2"/>
-        <v>0.16184403401674258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0.16184403401674263</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="4"/>
+        <v>0.15584598686273007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="C29" s="12">
         <v>171</v>
       </c>
@@ -3111,22 +3512,605 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>0.15887461114429441</v>
+        <v>0.15887443090033299</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="2"/>
-        <v>0.16145158436257667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>0.16145158436257676</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="4"/>
+        <v>0.15108671104158986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
+      <c r="A31" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="13" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" ref="H7:H14" si="0">RIGHT(A8,LEN(A8)-FIND("=",A8,1))</f>
+        <v xml:space="preserve">  0.50240</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f>RIGHT(A17,LEN(A17)-FIND("=",A17,1))</f>
+        <v xml:space="preserve">  0.50275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.502</v>
+      </c>
+      <c r="E8" s="3" t="e">
+        <f t="shared" ref="E8:E20" si="1">H$8+(H$7-H$8)*(H$9*(1+(H$10*C8)^H$11)^(1/H$11-1)+(1-H$9)*(1+(H$12*C8)^H$13)^(1/H$13-1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="3" t="e">
+        <f t="shared" ref="F8:F20" si="2">I$8+(I$7-I$8)*(I$9*(1-NORMSDIST(LN(C8/I$10)/I$11))+(1-I$9)*(1-NORMSDIST(LN(C8/I$12)/I$13)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  0.17712</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" ref="I8:I14" si="3">RIGHT(A18,LEN(A18)-FIND("=",A18,1))</f>
+        <v xml:space="preserve">  0.21229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="12">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.497</v>
+      </c>
+      <c r="E9" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  0.32391</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  0.34719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E10" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  0.068533</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  24.150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="12">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E11" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  2.0131</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  1.0286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="12">
+        <v>40</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.434</v>
+      </c>
+      <c r="E12" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  4.3203e-04</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  4801.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="12">
+        <v>80</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E13" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  1.5906</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  1.3068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12">
+        <v>160</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E14" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  0.99975</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  0.99970</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="12">
+        <v>345</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E15" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="12">
+        <v>690</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E16" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E17" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="12">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E18" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E19" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="12">
+        <v>15000</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.248</v>
+      </c>
+      <c r="E20" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
@@ -3222,579 +4206,7 @@
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <drawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="17.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="13" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" ref="H7:H14" si="0">RIGHT(A8,LEN(A8)-FIND("=",A8,1))</f>
-        <v xml:space="preserve">  0.50240</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f>RIGHT(A17,LEN(A17)-FIND("=",A17,1))</f>
-        <v xml:space="preserve">  0.50275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.502</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" ref="E8:E20" si="1">H$8+(H$7-H$8)*(H$9*(1+(H$10*C8)^H$11)^(1/H$11-1)+(1-H$9)*(1+(H$12*C8)^H$13)^(1/H$13-1))</f>
-        <v>0.50216000650612125</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ref="F8:F20" si="2">I$8+(I$7-I$8)*(I$9*(1-NORMSDIST(LN(C8/I$10)/I$11))+(1-I$9)*(1-NORMSDIST(LN(C8/I$12)/I$13)))</f>
-        <v>0.50265101152409131</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  0.17712</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" ref="I8:I14" si="3">RIGHT(A18,LEN(A18)-FIND("=",A18,1))</f>
-        <v xml:space="preserve">  0.21229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.497</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.49674345074355036</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.49640911615819572</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  0.32391</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.34719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12">
-        <v>10</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.48389479410746855</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.48301731166975215</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  0.068533</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  24.150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.45879745221141871</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.45965867570494029</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  2.0131</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  1.0286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12">
-        <v>40</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.434</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.43255676050049124</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.43333180867119181</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  4.3203e-04</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  4801.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12">
-        <v>80</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.41514626913243752</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.41405682196984017</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  1.5906</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  1.3068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="12">
-        <v>160</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.4051591944196104</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.40435761611333954</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  0.99975</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">  0.99970</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12">
-        <v>345</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.39748209897345466</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.39823293246507796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12">
-        <v>690</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.38831505425008755</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.38891008094430424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.35490856610248217</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.35424271688243014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="12">
-        <v>5000</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.30422421157952589</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.30475424941479545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="12">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.26678112932995451</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.26675940374285945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="12">
-        <v>15000</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.248</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.2488081030612134</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.2486380307136421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
